--- a/blog/skills/assets/data/pivot_data_1.xlsx
+++ b/blog/skills/assets/data/pivot_data_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\taming_python\pivot_melt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E84A11-57BA-4A94-92F7-933CDDA19453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E48096-BFF8-4ED2-B6F9-4DEE099C7A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF258280-5857-48F6-A1C4-C9414A602546}"/>
   </bookViews>
@@ -25,81 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>yob</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>abc@abc.com</t>
-  </si>
-  <si>
     <t>Harris</t>
   </si>
   <si>
-    <t>Newyork</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>def@def.com</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>England</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Joe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,17 +78,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,15 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97367E5-1052-42E3-A12E-346B84583C71}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,171 +415,146 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B3" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44361</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44360</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B7" s="1">
+        <v>44360</v>
+      </c>
+      <c r="C7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44360</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44360</v>
+      </c>
+      <c r="C9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B10" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B12" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1980</v>
+      <c r="B13" s="1">
+        <v>44359</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{6D925C9F-ED0E-49CB-BBC6-45118DA06C8C}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{68AD55C4-7412-4303-B513-B50CF73F049A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>